--- a/03-methods/tools.xlsx
+++ b/03-methods/tools.xlsx
@@ -815,9 +815,7 @@
       <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="C6"/>
       <c r="D6" t="n" s="2">
         <v>42163.0</v>
       </c>
@@ -1127,9 +1125,7 @@
       <c r="D24" t="n" s="2">
         <v>42599.0</v>
       </c>
-      <c r="E24" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="E24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1189,9 +1185,7 @@
       <c r="B28" t="s">
         <v>101</v>
       </c>
-      <c r="C28" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="C28"/>
       <c r="D28" t="n" s="2">
         <v>42673.0</v>
       </c>
@@ -1325,9 +1319,7 @@
       <c r="B36" t="s">
         <v>109</v>
       </c>
-      <c r="C36" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="C36"/>
       <c r="D36" t="n" s="2">
         <v>42830.0</v>
       </c>
@@ -1631,9 +1623,7 @@
       <c r="B54" t="s">
         <v>127</v>
       </c>
-      <c r="C54" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="C54"/>
       <c r="D54" t="n" s="2">
         <v>43069.0</v>
       </c>
@@ -1671,9 +1661,7 @@
       <c r="D56" t="n" s="2">
         <v>43072.0</v>
       </c>
-      <c r="E56" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="E56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -1824,9 +1812,7 @@
       <c r="D65" t="n" s="2">
         <v>43210.0</v>
       </c>
-      <c r="E65" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="E65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
